--- a/WebAPI/wwwroot/Plantillas/AcumulacionResultados.xlsx
+++ b/WebAPI/wwwroot/Plantillas/AcumulacionResultados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrojast\Documents\Plantillas_cu6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="4296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="Acumulacion Resultados" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Clave Única</t>
   </si>
   <si>
-    <t>Zona Estratégica</t>
-  </si>
-  <si>
     <t>Laboratorio Realizó Muestreo</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Tipo Sitio</t>
   </si>
 </sst>
 </file>
@@ -454,38 +454,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -511,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>2</v>
@@ -523,22 +525,22 @@
         <v>3</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>15</v>

--- a/WebAPI/wwwroot/Plantillas/AcumulacionResultados.xlsx
+++ b/WebAPI/wwwroot/Plantillas/AcumulacionResultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CONAGUA\GitLab\sica\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2658D25-FFB4-49E7-9FC7-A0609FF0B11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="4290"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acumulacion Resultados" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Clave Muestreo</t>
   </si>
@@ -102,12 +103,21 @@
   </si>
   <si>
     <t>Tipo Sitio</t>
+  </si>
+  <si>
+    <t>Número de Carga</t>
+  </si>
+  <si>
+    <t>Validación por Supervisión</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,13 +167,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -451,120 +461,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
